--- a/Result/23-11-24/NASDAQstock_23-11-24period252RS90.xlsx
+++ b/Result/23-11-24/NASDAQstock_23-11-24period252RS90.xlsx
@@ -2,39 +2,72 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="2"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA500"/>
+        <bgColor rgb="00FFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -46,23 +79,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -427,11 +474,11 @@
   </sheetPr>
   <dimension ref="A1:AN126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -653,7 +700,7 @@
       <c r="E2" t="n">
         <v>1.47</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="2" t="n">
         <v>-1.100100295360461</v>
       </c>
       <c r="G2" t="n">
@@ -680,7 +727,6 @@
       <c r="N2" t="n">
         <v>1.11</v>
       </c>
-      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
         <v>0</v>
       </c>
@@ -740,7 +786,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AI2" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -808,7 +854,7 @@
       <c r="N3" t="n">
         <v>1.31</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="O3" s="2" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -872,7 +918,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AI3" s="4" t="inlineStr">
         <is>
           <t>Energy</t>
         </is>
@@ -940,7 +986,6 @@
       <c r="N4" t="n">
         <v>1.04</v>
       </c>
-      <c r="O4" t="inlineStr"/>
       <c r="P4" t="n">
         <v>0</v>
       </c>
@@ -1004,7 +1049,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AI4" s="3" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
@@ -1072,7 +1117,6 @@
       <c r="N5" t="n">
         <v>1.11</v>
       </c>
-      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
         <v>1</v>
       </c>
@@ -1134,7 +1178,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AI5" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -1202,7 +1246,6 @@
       <c r="N6" t="n">
         <v>1.23</v>
       </c>
-      <c r="O6" t="inlineStr"/>
       <c r="P6" t="n">
         <v>0</v>
       </c>
@@ -1264,7 +1307,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AI6" s="4" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
@@ -1332,7 +1375,7 @@
       <c r="N7" t="n">
         <v>1.19</v>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="O7" s="2" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -1396,7 +1439,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI7" t="inlineStr">
+      <c r="AI7" s="3" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
@@ -1437,7 +1480,7 @@
       <c r="E8" t="n">
         <v>7.7</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>2.006597938654476</v>
       </c>
       <c r="G8" t="n">
@@ -1464,7 +1507,6 @@
       <c r="N8" t="n">
         <v>1.11</v>
       </c>
-      <c r="O8" t="inlineStr"/>
       <c r="P8" t="n">
         <v>1</v>
       </c>
@@ -1524,7 +1566,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI8" t="inlineStr">
+      <c r="AI8" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -1565,13 +1607,13 @@
       <c r="E9" t="n">
         <v>10.94</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>3.622280487323561</v>
       </c>
       <c r="G9" t="n">
         <v>6.9</v>
       </c>
-      <c r="H9" t="n">
+      <c r="H9" s="5" t="n">
         <v>3.33615924313994</v>
       </c>
       <c r="I9" t="n">
@@ -1592,7 +1634,6 @@
       <c r="N9" t="n">
         <v>1.76</v>
       </c>
-      <c r="O9" t="inlineStr"/>
       <c r="P9" t="n">
         <v>4</v>
       </c>
@@ -1652,7 +1693,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI9" t="inlineStr">
+      <c r="AI9" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -1720,7 +1761,6 @@
       <c r="N10" t="n">
         <v>1.16</v>
       </c>
-      <c r="O10" t="inlineStr"/>
       <c r="P10" t="n">
         <v>0</v>
       </c>
@@ -1782,7 +1822,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI10" t="inlineStr">
+      <c r="AI10" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -1850,7 +1890,6 @@
       <c r="N11" t="n">
         <v>1.16</v>
       </c>
-      <c r="O11" t="inlineStr"/>
       <c r="P11" t="n">
         <v>6</v>
       </c>
@@ -1866,7 +1905,7 @@
       <c r="T11" t="n">
         <v>4.444444444444444</v>
       </c>
-      <c r="U11" t="b">
+      <c r="U11" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V11" t="b">
@@ -1910,7 +1949,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI11" t="inlineStr">
+      <c r="AI11" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -1951,13 +1990,13 @@
       <c r="E12" t="n">
         <v>10.12</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" s="5" t="n">
         <v>3.21337317562336</v>
       </c>
       <c r="G12" t="n">
         <v>6.81</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H12" s="5" t="n">
         <v>3.260569555946424</v>
       </c>
       <c r="I12" t="n">
@@ -1978,7 +2017,6 @@
       <c r="N12" t="n">
         <v>1.13</v>
       </c>
-      <c r="O12" t="inlineStr"/>
       <c r="P12" t="n">
         <v>0</v>
       </c>
@@ -2040,7 +2078,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI12" t="inlineStr">
+      <c r="AI12" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -2172,7 +2210,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI13" t="inlineStr">
+      <c r="AI13" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -2240,7 +2278,6 @@
       <c r="N14" t="n">
         <v>1.1</v>
       </c>
-      <c r="O14" t="inlineStr"/>
       <c r="P14" t="n">
         <v>0</v>
       </c>
@@ -2300,7 +2337,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI14" t="inlineStr">
+      <c r="AI14" s="3" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
@@ -2432,7 +2469,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI15" t="inlineStr">
+      <c r="AI15" s="4" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
@@ -2479,7 +2516,7 @@
       <c r="G16" t="n">
         <v>1.72</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H16" s="2" t="n">
         <v>-1.014447197553509</v>
       </c>
       <c r="I16" t="n">
@@ -2500,7 +2537,6 @@
       <c r="N16" t="n">
         <v>1.21</v>
       </c>
-      <c r="O16" t="inlineStr"/>
       <c r="P16" t="n">
         <v>13</v>
       </c>
@@ -2562,7 +2598,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI16" t="inlineStr">
+      <c r="AI16" s="4" t="inlineStr">
         <is>
           <t>Energy</t>
         </is>
@@ -2630,7 +2666,6 @@
       <c r="N17" t="n">
         <v>1.14</v>
       </c>
-      <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
         <v>0</v>
       </c>
@@ -2690,7 +2725,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI17" t="inlineStr">
+      <c r="AI17" s="3" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
@@ -2758,7 +2793,7 @@
       <c r="N18" t="n">
         <v>1.21</v>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="2" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -2822,7 +2857,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI18" t="inlineStr">
+      <c r="AI18" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -2890,7 +2925,6 @@
       <c r="N19" t="n">
         <v>1.15</v>
       </c>
-      <c r="O19" t="inlineStr"/>
       <c r="P19" t="n">
         <v>1</v>
       </c>
@@ -2950,7 +2984,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI19" t="inlineStr">
+      <c r="AI19" s="3" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
@@ -3018,7 +3052,6 @@
       <c r="N20" t="n">
         <v>1.07</v>
       </c>
-      <c r="O20" t="inlineStr"/>
       <c r="P20" t="n">
         <v>0</v>
       </c>
@@ -3080,7 +3113,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI20" t="inlineStr">
+      <c r="AI20" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -3148,7 +3181,6 @@
       <c r="N21" t="n">
         <v>1.23</v>
       </c>
-      <c r="O21" t="inlineStr"/>
       <c r="P21" t="n">
         <v>0</v>
       </c>
@@ -3208,7 +3240,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI21" t="inlineStr">
+      <c r="AI21" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -3276,7 +3308,6 @@
       <c r="N22" t="n">
         <v>1.15</v>
       </c>
-      <c r="O22" t="inlineStr"/>
       <c r="P22" t="n">
         <v>0</v>
       </c>
@@ -3338,7 +3369,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI22" t="inlineStr">
+      <c r="AI22" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -3406,7 +3437,6 @@
       <c r="N23" t="n">
         <v>1.36</v>
       </c>
-      <c r="O23" t="inlineStr"/>
       <c r="P23" t="n">
         <v>0</v>
       </c>
@@ -3468,7 +3498,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI23" t="inlineStr">
+      <c r="AI23" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -3536,7 +3566,6 @@
       <c r="N24" t="n">
         <v>1.26</v>
       </c>
-      <c r="O24" t="inlineStr"/>
       <c r="P24" t="n">
         <v>0</v>
       </c>
@@ -3596,7 +3625,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI24" t="inlineStr">
+      <c r="AI24" s="3" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
@@ -3643,7 +3672,7 @@
       <c r="G25" t="n">
         <v>1.67</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H25" s="2" t="n">
         <v>-1.056441468216573</v>
       </c>
       <c r="I25" t="n">
@@ -3664,7 +3693,6 @@
       <c r="N25" t="n">
         <v>1.12</v>
       </c>
-      <c r="O25" t="inlineStr"/>
       <c r="P25" t="n">
         <v>0</v>
       </c>
@@ -3680,7 +3708,7 @@
       <c r="T25" t="n">
         <v>0</v>
       </c>
-      <c r="U25" t="b">
+      <c r="U25" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V25" t="b">
@@ -3724,7 +3752,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI25" t="inlineStr">
+      <c r="AI25" s="3" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
@@ -3792,7 +3820,7 @@
       <c r="N26" t="n">
         <v>1.25</v>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -3858,7 +3886,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI26" t="inlineStr">
+      <c r="AI26" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -3899,13 +3927,13 @@
       <c r="E27" t="n">
         <v>11.76</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" s="5" t="n">
         <v>4.031187799023761</v>
       </c>
       <c r="G27" t="n">
         <v>7.78</v>
       </c>
-      <c r="H27" t="n">
+      <c r="H27" s="5" t="n">
         <v>4.075258406809869</v>
       </c>
       <c r="I27" t="n">
@@ -3926,7 +3954,6 @@
       <c r="N27" t="n">
         <v>1.67</v>
       </c>
-      <c r="O27" t="inlineStr"/>
       <c r="P27" t="n">
         <v>0</v>
       </c>
@@ -3988,7 +4015,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI27" t="inlineStr">
+      <c r="AI27" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -4056,7 +4083,6 @@
       <c r="N28" t="n">
         <v>1.08</v>
       </c>
-      <c r="O28" t="inlineStr"/>
       <c r="P28" t="n">
         <v>0</v>
       </c>
@@ -4072,7 +4098,7 @@
       <c r="T28" t="n">
         <v>0</v>
       </c>
-      <c r="U28" t="b">
+      <c r="U28" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V28" t="b">
@@ -4116,7 +4142,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI28" t="inlineStr">
+      <c r="AI28" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -4184,7 +4210,6 @@
       <c r="N29" t="n">
         <v>1.47</v>
       </c>
-      <c r="O29" t="inlineStr"/>
       <c r="P29" t="n">
         <v>0</v>
       </c>
@@ -4244,7 +4269,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AI29" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -4312,7 +4337,6 @@
       <c r="N30" t="n">
         <v>1.2</v>
       </c>
-      <c r="O30" t="inlineStr"/>
       <c r="P30" t="n">
         <v>0</v>
       </c>
@@ -4372,7 +4396,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI30" t="inlineStr">
+      <c r="AI30" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -4440,7 +4464,6 @@
       <c r="N31" t="n">
         <v>1.31</v>
       </c>
-      <c r="O31" t="inlineStr"/>
       <c r="P31" t="n">
         <v>0</v>
       </c>
@@ -4500,7 +4523,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI31" t="inlineStr">
+      <c r="AI31" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -4568,7 +4591,6 @@
       <c r="N32" t="n">
         <v>1.09</v>
       </c>
-      <c r="O32" t="inlineStr"/>
       <c r="P32" t="n">
         <v>0</v>
       </c>
@@ -4630,7 +4652,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI32" t="inlineStr">
+      <c r="AI32" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -4698,7 +4720,6 @@
       <c r="N33" t="n">
         <v>1.14</v>
       </c>
-      <c r="O33" t="inlineStr"/>
       <c r="P33" t="n">
         <v>0</v>
       </c>
@@ -4758,7 +4779,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI33" t="inlineStr">
+      <c r="AI33" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -4826,7 +4847,6 @@
       <c r="N34" t="n">
         <v>1.32</v>
       </c>
-      <c r="O34" t="inlineStr"/>
       <c r="P34" t="n">
         <v>10</v>
       </c>
@@ -4886,7 +4906,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI34" t="inlineStr">
+      <c r="AI34" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -5020,7 +5040,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI35" t="inlineStr">
+      <c r="AI35" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -5088,7 +5108,6 @@
       <c r="N36" t="n">
         <v>1.41</v>
       </c>
-      <c r="O36" t="inlineStr"/>
       <c r="P36" t="n">
         <v>0</v>
       </c>
@@ -5148,7 +5167,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI36" t="inlineStr">
+      <c r="AI36" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -5216,7 +5235,6 @@
       <c r="N37" t="n">
         <v>1.1</v>
       </c>
-      <c r="O37" t="inlineStr"/>
       <c r="P37" t="n">
         <v>0</v>
       </c>
@@ -5276,7 +5294,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI37" t="inlineStr">
+      <c r="AI37" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -5344,7 +5362,6 @@
       <c r="N38" t="n">
         <v>1.35</v>
       </c>
-      <c r="O38" t="inlineStr"/>
       <c r="P38" t="n">
         <v>1</v>
       </c>
@@ -5404,7 +5421,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI38" t="inlineStr">
+      <c r="AI38" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -5472,7 +5489,6 @@
       <c r="N39" t="n">
         <v>1.21</v>
       </c>
-      <c r="O39" t="inlineStr"/>
       <c r="P39" t="n">
         <v>1</v>
       </c>
@@ -5532,7 +5548,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI39" t="inlineStr">
+      <c r="AI39" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -5600,7 +5616,6 @@
       <c r="N40" t="n">
         <v>1.08</v>
       </c>
-      <c r="O40" t="inlineStr"/>
       <c r="P40" t="n">
         <v>0</v>
       </c>
@@ -5616,7 +5631,7 @@
       <c r="T40" t="n">
         <v>0</v>
       </c>
-      <c r="U40" t="b">
+      <c r="U40" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V40" t="b">
@@ -5662,7 +5677,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI40" t="inlineStr">
+      <c r="AI40" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -5730,7 +5745,6 @@
       <c r="N41" t="n">
         <v>1.15</v>
       </c>
-      <c r="O41" t="inlineStr"/>
       <c r="P41" t="n">
         <v>1</v>
       </c>
@@ -5790,7 +5804,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI41" t="inlineStr">
+      <c r="AI41" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -5858,7 +5872,6 @@
       <c r="N42" t="n">
         <v>1.13</v>
       </c>
-      <c r="O42" t="inlineStr"/>
       <c r="P42" t="n">
         <v>0</v>
       </c>
@@ -5920,7 +5933,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI42" t="inlineStr">
+      <c r="AI42" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -5988,7 +6001,6 @@
       <c r="N43" t="n">
         <v>1.06</v>
       </c>
-      <c r="O43" t="inlineStr"/>
       <c r="P43" t="n">
         <v>0</v>
       </c>
@@ -6050,7 +6062,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI43" t="inlineStr">
+      <c r="AI43" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -6091,13 +6103,13 @@
       <c r="E44" t="n">
         <v>8.56</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44" s="5" t="n">
         <v>2.435451948486394</v>
       </c>
       <c r="G44" t="n">
         <v>6.37</v>
       </c>
-      <c r="H44" t="n">
+      <c r="H44" s="5" t="n">
         <v>2.89101997411146</v>
       </c>
       <c r="I44" t="n">
@@ -6118,7 +6130,6 @@
       <c r="N44" t="n">
         <v>1.56</v>
       </c>
-      <c r="O44" t="inlineStr"/>
       <c r="P44" t="n">
         <v>0</v>
       </c>
@@ -6169,14 +6180,12 @@
       <c r="AE44" t="n">
         <v>-128.47</v>
       </c>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI44" t="inlineStr">
+      <c r="AI44" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -6244,7 +6253,6 @@
       <c r="N45" t="n">
         <v>1.12</v>
       </c>
-      <c r="O45" t="inlineStr"/>
       <c r="P45" t="n">
         <v>0</v>
       </c>
@@ -6260,7 +6268,7 @@
       <c r="T45" t="n">
         <v>0</v>
       </c>
-      <c r="U45" t="b">
+      <c r="U45" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V45" t="b">
@@ -6304,7 +6312,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI45" t="inlineStr">
+      <c r="AI45" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -6372,7 +6380,6 @@
       <c r="N46" t="n">
         <v>1.24</v>
       </c>
-      <c r="O46" t="inlineStr"/>
       <c r="P46" t="n">
         <v>0</v>
       </c>
@@ -6432,7 +6439,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI46" t="inlineStr">
+      <c r="AI46" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -6500,7 +6507,6 @@
       <c r="N47" t="n">
         <v>1.08</v>
       </c>
-      <c r="O47" t="inlineStr"/>
       <c r="P47" t="n">
         <v>0</v>
       </c>
@@ -6560,7 +6566,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI47" t="inlineStr">
+      <c r="AI47" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -6628,7 +6634,6 @@
       <c r="N48" t="n">
         <v>1.12</v>
       </c>
-      <c r="O48" t="inlineStr"/>
       <c r="P48" t="n">
         <v>1</v>
       </c>
@@ -6644,7 +6649,7 @@
       <c r="T48" t="n">
         <v>2.777777777777778</v>
       </c>
-      <c r="U48" t="b">
+      <c r="U48" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V48" t="b">
@@ -6688,7 +6693,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI48" t="inlineStr">
+      <c r="AI48" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -6756,7 +6761,6 @@
       <c r="N49" t="n">
         <v>1.01</v>
       </c>
-      <c r="O49" t="inlineStr"/>
       <c r="P49" t="n">
         <v>0</v>
       </c>
@@ -6818,7 +6822,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI49" t="inlineStr">
+      <c r="AI49" s="3" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
@@ -6886,7 +6890,6 @@
       <c r="N50" t="n">
         <v>1.22</v>
       </c>
-      <c r="O50" t="inlineStr"/>
       <c r="P50" t="n">
         <v>9</v>
       </c>
@@ -6946,7 +6949,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI50" t="inlineStr">
+      <c r="AI50" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -6987,13 +6990,13 @@
       <c r="E51" t="n">
         <v>1.52</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51" s="2" t="n">
         <v>-1.075166922695814</v>
       </c>
       <c r="G51" t="n">
         <v>1.45</v>
       </c>
-      <c r="H51" t="n">
+      <c r="H51" s="2" t="n">
         <v>-1.241216259134056</v>
       </c>
       <c r="I51" t="n">
@@ -7014,7 +7017,6 @@
       <c r="N51" t="n">
         <v>1.14</v>
       </c>
-      <c r="O51" t="inlineStr"/>
       <c r="P51" t="n">
         <v>0</v>
       </c>
@@ -7030,7 +7032,7 @@
       <c r="T51" t="n">
         <v>0</v>
       </c>
-      <c r="U51" t="b">
+      <c r="U51" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V51" t="b">
@@ -7074,7 +7076,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI51" t="inlineStr">
+      <c r="AI51" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -7115,7 +7117,7 @@
       <c r="E52" t="n">
         <v>1.26</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52" s="2" t="n">
         <v>-1.204820460551975</v>
       </c>
       <c r="G52" t="n">
@@ -7142,7 +7144,6 @@
       <c r="N52" t="n">
         <v>1.06</v>
       </c>
-      <c r="O52" t="inlineStr"/>
       <c r="P52" t="n">
         <v>1</v>
       </c>
@@ -7202,7 +7203,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AI52" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -7243,7 +7244,7 @@
       <c r="E53" t="n">
         <v>1.22</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53" s="2" t="n">
         <v>-1.224767158683692</v>
       </c>
       <c r="G53" t="n">
@@ -7334,7 +7335,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI53" t="inlineStr">
+      <c r="AI53" s="3" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
@@ -7402,7 +7403,6 @@
       <c r="N54" t="n">
         <v>1.22</v>
       </c>
-      <c r="O54" t="inlineStr"/>
       <c r="P54" t="n">
         <v>0</v>
       </c>
@@ -7418,7 +7418,7 @@
       <c r="T54" t="n">
         <v>0</v>
       </c>
-      <c r="U54" t="b">
+      <c r="U54" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V54" t="b">
@@ -7462,7 +7462,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI54" t="inlineStr">
+      <c r="AI54" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -7530,7 +7530,6 @@
       <c r="N55" t="n">
         <v>1.43</v>
       </c>
-      <c r="O55" t="inlineStr"/>
       <c r="P55" t="n">
         <v>0</v>
       </c>
@@ -7590,7 +7589,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI55" t="inlineStr">
+      <c r="AI55" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -7658,7 +7657,6 @@
       <c r="N56" t="n">
         <v>1.03</v>
       </c>
-      <c r="O56" t="inlineStr"/>
       <c r="P56" t="n">
         <v>7</v>
       </c>
@@ -7718,7 +7716,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI56" t="inlineStr">
+      <c r="AI56" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -7786,7 +7784,6 @@
       <c r="N57" t="n">
         <v>1.12</v>
       </c>
-      <c r="O57" t="inlineStr"/>
       <c r="P57" t="n">
         <v>0</v>
       </c>
@@ -7846,7 +7843,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI57" t="inlineStr">
+      <c r="AI57" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -7914,7 +7911,6 @@
       <c r="N58" t="n">
         <v>1.12</v>
       </c>
-      <c r="O58" t="inlineStr"/>
       <c r="P58" t="n">
         <v>2</v>
       </c>
@@ -7974,7 +7970,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI58" t="inlineStr">
+      <c r="AI58" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -8042,7 +8038,6 @@
       <c r="N59" t="n">
         <v>1.11</v>
       </c>
-      <c r="O59" t="inlineStr"/>
       <c r="P59" t="n">
         <v>0</v>
       </c>
@@ -8058,7 +8053,7 @@
       <c r="T59" t="n">
         <v>0</v>
       </c>
-      <c r="U59" t="b">
+      <c r="U59" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V59" t="b">
@@ -8102,7 +8097,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI59" t="inlineStr">
+      <c r="AI59" s="3" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
@@ -8170,7 +8165,6 @@
       <c r="N60" t="n">
         <v>1.11</v>
       </c>
-      <c r="O60" t="inlineStr"/>
       <c r="P60" t="n">
         <v>2</v>
       </c>
@@ -8230,7 +8224,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI60" t="inlineStr">
+      <c r="AI60" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -8298,7 +8292,6 @@
       <c r="N61" t="n">
         <v>1.22</v>
       </c>
-      <c r="O61" t="inlineStr"/>
       <c r="P61" t="n">
         <v>0</v>
       </c>
@@ -8358,7 +8351,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI61" t="inlineStr">
+      <c r="AI61" s="3" t="inlineStr">
         <is>
           <t>Communication Services</t>
         </is>
@@ -8426,7 +8419,6 @@
       <c r="N62" t="n">
         <v>1.07</v>
       </c>
-      <c r="O62" t="inlineStr"/>
       <c r="P62" t="n">
         <v>0</v>
       </c>
@@ -8486,7 +8478,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI62" t="inlineStr">
+      <c r="AI62" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -8554,7 +8546,6 @@
       <c r="N63" t="n">
         <v>1.08</v>
       </c>
-      <c r="O63" t="inlineStr"/>
       <c r="P63" t="n">
         <v>0</v>
       </c>
@@ -8616,7 +8607,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI63" t="inlineStr">
+      <c r="AI63" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -8684,7 +8675,6 @@
       <c r="N64" t="n">
         <v>1.19</v>
       </c>
-      <c r="O64" t="inlineStr"/>
       <c r="P64" t="n">
         <v>0</v>
       </c>
@@ -8746,7 +8736,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI64" t="inlineStr">
+      <c r="AI64" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -8787,7 +8777,7 @@
       <c r="E65" t="n">
         <v>8.51</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65" s="5" t="n">
         <v>2.410518575821747</v>
       </c>
       <c r="G65" t="n">
@@ -8814,7 +8804,6 @@
       <c r="N65" t="n">
         <v>1.12</v>
       </c>
-      <c r="O65" t="inlineStr"/>
       <c r="P65" t="n">
         <v>2</v>
       </c>
@@ -8874,7 +8863,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI65" t="inlineStr">
+      <c r="AI65" s="3" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
@@ -8942,7 +8931,6 @@
       <c r="N66" t="n">
         <v>1.13</v>
       </c>
-      <c r="O66" t="inlineStr"/>
       <c r="P66" t="n">
         <v>0</v>
       </c>
@@ -9002,7 +8990,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI66" t="inlineStr">
+      <c r="AI66" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -9070,7 +9058,6 @@
       <c r="N67" t="n">
         <v>1.05</v>
       </c>
-      <c r="O67" t="inlineStr"/>
       <c r="P67" t="n">
         <v>0</v>
       </c>
@@ -9130,7 +9117,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI67" t="inlineStr">
+      <c r="AI67" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -9198,7 +9185,6 @@
       <c r="N68" t="n">
         <v>1.15</v>
       </c>
-      <c r="O68" t="inlineStr"/>
       <c r="P68" t="n">
         <v>0</v>
       </c>
@@ -9258,7 +9244,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI68" t="inlineStr">
+      <c r="AI68" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -9326,7 +9312,6 @@
       <c r="N69" t="n">
         <v>1.21</v>
       </c>
-      <c r="O69" t="inlineStr"/>
       <c r="P69" t="n">
         <v>0</v>
       </c>
@@ -9388,7 +9373,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI69" t="inlineStr">
+      <c r="AI69" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -9456,7 +9441,6 @@
       <c r="N70" t="n">
         <v>1.06</v>
       </c>
-      <c r="O70" t="inlineStr"/>
       <c r="P70" t="n">
         <v>0</v>
       </c>
@@ -9518,7 +9502,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI70" t="inlineStr">
+      <c r="AI70" s="4" t="inlineStr">
         <is>
           <t>Energy</t>
         </is>
@@ -9586,7 +9570,6 @@
       <c r="N71" t="n">
         <v>1.14</v>
       </c>
-      <c r="O71" t="inlineStr"/>
       <c r="P71" t="n">
         <v>1</v>
       </c>
@@ -9602,7 +9585,7 @@
       <c r="T71" t="n">
         <v>6.111111111111111</v>
       </c>
-      <c r="U71" t="b">
+      <c r="U71" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V71" t="b">
@@ -9646,7 +9629,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI71" t="inlineStr">
+      <c r="AI71" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -9714,7 +9697,6 @@
       <c r="N72" t="n">
         <v>1.09</v>
       </c>
-      <c r="O72" t="inlineStr"/>
       <c r="P72" t="n">
         <v>1</v>
       </c>
@@ -9774,7 +9756,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI72" t="inlineStr">
+      <c r="AI72" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -9842,7 +9824,6 @@
       <c r="N73" t="n">
         <v>1.04</v>
       </c>
-      <c r="O73" t="inlineStr"/>
       <c r="P73" t="n">
         <v>0</v>
       </c>
@@ -9902,7 +9883,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI73" t="inlineStr">
+      <c r="AI73" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -9970,7 +9951,6 @@
       <c r="N74" t="n">
         <v>1.13</v>
       </c>
-      <c r="O74" t="inlineStr"/>
       <c r="P74" t="n">
         <v>0</v>
       </c>
@@ -9986,7 +9966,7 @@
       <c r="T74" t="n">
         <v>0</v>
       </c>
-      <c r="U74" t="b">
+      <c r="U74" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V74" t="b">
@@ -10030,7 +10010,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI74" t="inlineStr">
+      <c r="AI74" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -10098,7 +10078,6 @@
       <c r="N75" t="n">
         <v>1.12</v>
       </c>
-      <c r="O75" t="inlineStr"/>
       <c r="P75" t="n">
         <v>0</v>
       </c>
@@ -10158,7 +10137,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI75" t="inlineStr">
+      <c r="AI75" s="3" t="inlineStr">
         <is>
           <t>Healthcare</t>
         </is>
@@ -10226,7 +10205,6 @@
       <c r="N76" t="n">
         <v>1.38</v>
       </c>
-      <c r="O76" t="inlineStr"/>
       <c r="P76" t="n">
         <v>0</v>
       </c>
@@ -10286,7 +10264,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI76" t="inlineStr">
+      <c r="AI76" s="4" t="inlineStr">
         <is>
           <t>Utilities</t>
         </is>
@@ -10354,7 +10332,6 @@
       <c r="N77" t="n">
         <v>1.01</v>
       </c>
-      <c r="O77" t="inlineStr"/>
       <c r="P77" t="n">
         <v>0</v>
       </c>
@@ -10370,7 +10347,7 @@
       <c r="T77" t="n">
         <v>0</v>
       </c>
-      <c r="U77" t="b">
+      <c r="U77" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V77" t="b">
@@ -10414,7 +10391,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI77" t="inlineStr">
+      <c r="AI77" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -10461,7 +10438,7 @@
       <c r="G78" t="n">
         <v>1.73</v>
       </c>
-      <c r="H78" t="n">
+      <c r="H78" s="2" t="n">
         <v>-1.006048343420896</v>
       </c>
       <c r="I78" t="n">
@@ -10482,7 +10459,6 @@
       <c r="N78" t="n">
         <v>1.1</v>
       </c>
-      <c r="O78" t="inlineStr"/>
       <c r="P78" t="n">
         <v>6</v>
       </c>
@@ -10542,7 +10518,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI78" t="inlineStr">
+      <c r="AI78" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -10610,7 +10586,6 @@
       <c r="N79" t="n">
         <v>1.12</v>
       </c>
-      <c r="O79" t="inlineStr"/>
       <c r="P79" t="n">
         <v>0</v>
       </c>
@@ -10670,7 +10645,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI79" t="inlineStr">
+      <c r="AI79" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -10738,7 +10713,6 @@
       <c r="N80" t="n">
         <v>1.11</v>
       </c>
-      <c r="O80" t="inlineStr"/>
       <c r="P80" t="n">
         <v>0</v>
       </c>
@@ -10798,7 +10772,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI80" t="inlineStr">
+      <c r="AI80" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -10866,7 +10840,6 @@
       <c r="N81" t="n">
         <v>1.11</v>
       </c>
-      <c r="O81" t="inlineStr"/>
       <c r="P81" t="n">
         <v>2</v>
       </c>
@@ -10926,7 +10899,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI81" t="inlineStr">
+      <c r="AI81" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -10994,7 +10967,6 @@
       <c r="N82" t="n">
         <v>1.18</v>
       </c>
-      <c r="O82" t="inlineStr"/>
       <c r="P82" t="n">
         <v>0</v>
       </c>
@@ -11010,7 +10982,7 @@
       <c r="T82" t="n">
         <v>0</v>
       </c>
-      <c r="U82" t="b">
+      <c r="U82" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V82" t="b">
@@ -11054,7 +11026,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI82" t="inlineStr">
+      <c r="AI82" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -11122,7 +11094,6 @@
       <c r="N83" t="n">
         <v>1.18</v>
       </c>
-      <c r="O83" t="inlineStr"/>
       <c r="P83" t="n">
         <v>0</v>
       </c>
@@ -11138,7 +11109,7 @@
       <c r="T83" t="n">
         <v>0</v>
       </c>
-      <c r="U83" t="b">
+      <c r="U83" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V83" t="b">
@@ -11182,7 +11153,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI83" t="inlineStr">
+      <c r="AI83" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -11250,7 +11221,6 @@
       <c r="N84" t="n">
         <v>1.15</v>
       </c>
-      <c r="O84" t="inlineStr"/>
       <c r="P84" t="n">
         <v>1</v>
       </c>
@@ -11312,7 +11282,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI84" t="inlineStr">
+      <c r="AI84" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -11380,7 +11350,6 @@
       <c r="N85" t="n">
         <v>1.05</v>
       </c>
-      <c r="O85" t="inlineStr"/>
       <c r="P85" t="n">
         <v>0</v>
       </c>
@@ -11440,7 +11409,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI85" t="inlineStr">
+      <c r="AI85" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -11508,7 +11477,6 @@
       <c r="N86" t="n">
         <v>0.99</v>
       </c>
-      <c r="O86" t="inlineStr"/>
       <c r="P86" t="n">
         <v>1</v>
       </c>
@@ -11568,7 +11536,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI86" t="inlineStr">
+      <c r="AI86" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -11636,7 +11604,6 @@
       <c r="N87" t="n">
         <v>1.23</v>
       </c>
-      <c r="O87" t="inlineStr"/>
       <c r="P87" t="n">
         <v>2</v>
       </c>
@@ -11696,7 +11663,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI87" t="inlineStr">
+      <c r="AI87" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -11764,7 +11731,6 @@
       <c r="N88" t="n">
         <v>1.08</v>
       </c>
-      <c r="O88" t="inlineStr"/>
       <c r="P88" t="n">
         <v>0</v>
       </c>
@@ -11826,7 +11792,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI88" t="inlineStr">
+      <c r="AI88" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -11894,7 +11860,7 @@
       <c r="N89" t="n">
         <v>1.1</v>
       </c>
-      <c r="O89" t="inlineStr">
+      <c r="O89" s="2" t="inlineStr">
         <is>
           <t>MVP</t>
         </is>
@@ -11958,7 +11924,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI89" t="inlineStr">
+      <c r="AI89" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -12026,7 +11992,6 @@
       <c r="N90" t="n">
         <v>1.05</v>
       </c>
-      <c r="O90" t="inlineStr"/>
       <c r="P90" t="n">
         <v>0</v>
       </c>
@@ -12042,7 +12007,7 @@
       <c r="T90" t="n">
         <v>0</v>
       </c>
-      <c r="U90" t="b">
+      <c r="U90" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V90" t="b">
@@ -12086,7 +12051,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI90" t="inlineStr">
+      <c r="AI90" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -12154,7 +12119,6 @@
       <c r="N91" t="n">
         <v>1.15</v>
       </c>
-      <c r="O91" t="inlineStr"/>
       <c r="P91" t="n">
         <v>0</v>
       </c>
@@ -12170,7 +12134,7 @@
       <c r="T91" t="n">
         <v>0</v>
       </c>
-      <c r="U91" t="b">
+      <c r="U91" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V91" t="b">
@@ -12214,7 +12178,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI91" t="inlineStr">
+      <c r="AI91" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -12282,7 +12246,6 @@
       <c r="N92" t="n">
         <v>1.12</v>
       </c>
-      <c r="O92" t="inlineStr"/>
       <c r="P92" t="n">
         <v>0</v>
       </c>
@@ -12342,7 +12305,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI92" t="inlineStr">
+      <c r="AI92" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -12410,7 +12373,6 @@
       <c r="N93" t="n">
         <v>1.19</v>
       </c>
-      <c r="O93" t="inlineStr"/>
       <c r="P93" t="n">
         <v>0</v>
       </c>
@@ -12472,7 +12434,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI93" t="inlineStr">
+      <c r="AI93" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -12519,7 +12481,7 @@
       <c r="G94" t="n">
         <v>1.7</v>
       </c>
-      <c r="H94" t="n">
+      <c r="H94" s="2" t="n">
         <v>-1.031244905818735</v>
       </c>
       <c r="I94" t="n">
@@ -12540,7 +12502,6 @@
       <c r="N94" t="n">
         <v>1.13</v>
       </c>
-      <c r="O94" t="inlineStr"/>
       <c r="P94" t="n">
         <v>4</v>
       </c>
@@ -12600,7 +12561,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI94" t="inlineStr">
+      <c r="AI94" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -12668,7 +12629,6 @@
       <c r="N95" t="n">
         <v>1.32</v>
       </c>
-      <c r="O95" t="inlineStr"/>
       <c r="P95" t="n">
         <v>0</v>
       </c>
@@ -12728,7 +12688,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI95" t="inlineStr">
+      <c r="AI95" s="3" t="inlineStr">
         <is>
           <t>Consumer Defensive</t>
         </is>
@@ -12796,7 +12756,6 @@
       <c r="N96" t="n">
         <v>1.16</v>
       </c>
-      <c r="O96" t="inlineStr"/>
       <c r="P96" t="n">
         <v>0</v>
       </c>
@@ -12812,7 +12771,7 @@
       <c r="T96" t="n">
         <v>0</v>
       </c>
-      <c r="U96" t="b">
+      <c r="U96" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V96" t="b">
@@ -12856,7 +12815,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI96" t="inlineStr">
+      <c r="AI96" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -12924,7 +12883,6 @@
       <c r="N97" t="n">
         <v>1.08</v>
       </c>
-      <c r="O97" t="inlineStr"/>
       <c r="P97" t="n">
         <v>0</v>
       </c>
@@ -12984,7 +12942,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI97" t="inlineStr">
+      <c r="AI97" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -13052,7 +13010,6 @@
       <c r="N98" t="n">
         <v>1</v>
       </c>
-      <c r="O98" t="inlineStr"/>
       <c r="P98" t="n">
         <v>0</v>
       </c>
@@ -13112,7 +13069,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI98" t="inlineStr">
+      <c r="AI98" s="3" t="inlineStr">
         <is>
           <t>Real Estate</t>
         </is>
@@ -13180,7 +13137,6 @@
       <c r="N99" t="n">
         <v>1.13</v>
       </c>
-      <c r="O99" t="inlineStr"/>
       <c r="P99" t="n">
         <v>0</v>
       </c>
@@ -13196,7 +13152,7 @@
       <c r="T99" t="n">
         <v>0</v>
       </c>
-      <c r="U99" t="b">
+      <c r="U99" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V99" t="b">
@@ -13240,7 +13196,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI99" t="inlineStr">
+      <c r="AI99" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -13308,7 +13264,6 @@
       <c r="N100" t="n">
         <v>1.1</v>
       </c>
-      <c r="O100" t="inlineStr"/>
       <c r="P100" t="n">
         <v>0</v>
       </c>
@@ -13324,7 +13279,7 @@
       <c r="T100" t="n">
         <v>0</v>
       </c>
-      <c r="U100" t="b">
+      <c r="U100" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V100" t="b">
@@ -13368,7 +13323,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI100" t="inlineStr">
+      <c r="AI100" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -13436,7 +13391,6 @@
       <c r="N101" t="n">
         <v>1.05</v>
       </c>
-      <c r="O101" t="inlineStr"/>
       <c r="P101" t="n">
         <v>0</v>
       </c>
@@ -13496,7 +13450,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI101" t="inlineStr">
+      <c r="AI101" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -13537,13 +13491,13 @@
       <c r="E102" t="n">
         <v>1.66</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102" s="2" t="n">
         <v>-1.005353479234805</v>
       </c>
       <c r="G102" t="n">
         <v>1.44</v>
       </c>
-      <c r="H102" t="n">
+      <c r="H102" s="2" t="n">
         <v>-1.249615113266669</v>
       </c>
       <c r="I102" t="n">
@@ -13564,7 +13518,6 @@
       <c r="N102" t="n">
         <v>1.05</v>
       </c>
-      <c r="O102" t="inlineStr"/>
       <c r="P102" t="n">
         <v>0</v>
       </c>
@@ -13580,7 +13533,7 @@
       <c r="T102" t="n">
         <v>0</v>
       </c>
-      <c r="U102" t="b">
+      <c r="U102" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V102" t="b">
@@ -13624,7 +13577,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI102" t="inlineStr">
+      <c r="AI102" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -13692,7 +13645,6 @@
       <c r="N103" t="n">
         <v>1.03</v>
       </c>
-      <c r="O103" t="inlineStr"/>
       <c r="P103" t="n">
         <v>0</v>
       </c>
@@ -13752,7 +13704,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI103" t="inlineStr">
+      <c r="AI103" s="3" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
@@ -13884,7 +13836,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI104" t="inlineStr">
+      <c r="AI104" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -13952,7 +13904,6 @@
       <c r="N105" t="n">
         <v>1.14</v>
       </c>
-      <c r="O105" t="inlineStr"/>
       <c r="P105" t="n">
         <v>0</v>
       </c>
@@ -14012,7 +13963,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI105" t="inlineStr">
+      <c r="AI105" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -14080,7 +14031,6 @@
       <c r="N106" t="n">
         <v>1.24</v>
       </c>
-      <c r="O106" t="inlineStr"/>
       <c r="P106" t="n">
         <v>0</v>
       </c>
@@ -14140,7 +14090,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI106" t="inlineStr">
+      <c r="AI106" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -14181,13 +14131,13 @@
       <c r="E107" t="n">
         <v>10.34</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107" s="5" t="n">
         <v>3.323080015347804</v>
       </c>
       <c r="G107" t="n">
         <v>6.19</v>
       </c>
-      <c r="H107" t="n">
+      <c r="H107" s="5" t="n">
         <v>2.739840599724428</v>
       </c>
       <c r="I107" t="n">
@@ -14208,7 +14158,6 @@
       <c r="N107" t="n">
         <v>1.21</v>
       </c>
-      <c r="O107" t="inlineStr"/>
       <c r="P107" t="n">
         <v>0</v>
       </c>
@@ -14270,7 +14219,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI107" t="inlineStr">
+      <c r="AI107" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -14338,7 +14287,6 @@
       <c r="N108" t="n">
         <v>1.14</v>
       </c>
-      <c r="O108" t="inlineStr"/>
       <c r="P108" t="n">
         <v>0</v>
       </c>
@@ -14398,7 +14346,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI108" t="inlineStr">
+      <c r="AI108" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -14439,13 +14387,13 @@
       <c r="E109" t="n">
         <v>1.26</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109" s="2" t="n">
         <v>-1.204820460551975</v>
       </c>
       <c r="G109" t="n">
         <v>1.26</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H109" s="2" t="n">
         <v>-1.4007944876537</v>
       </c>
       <c r="I109" t="n">
@@ -14466,7 +14414,6 @@
       <c r="N109" t="n">
         <v>1.1</v>
       </c>
-      <c r="O109" t="inlineStr"/>
       <c r="P109" t="n">
         <v>0</v>
       </c>
@@ -14482,7 +14429,7 @@
       <c r="T109" t="n">
         <v>1.111111111111111</v>
       </c>
-      <c r="U109" t="b">
+      <c r="U109" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V109" t="b">
@@ -14526,7 +14473,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI109" t="inlineStr">
+      <c r="AI109" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -14594,7 +14541,6 @@
       <c r="N110" t="n">
         <v>1.09</v>
       </c>
-      <c r="O110" t="inlineStr"/>
       <c r="P110" t="n">
         <v>0</v>
       </c>
@@ -14654,7 +14600,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI110" t="inlineStr">
+      <c r="AI110" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -14722,7 +14668,6 @@
       <c r="N111" t="n">
         <v>1.11</v>
       </c>
-      <c r="O111" t="inlineStr"/>
       <c r="P111" t="n">
         <v>0</v>
       </c>
@@ -14782,7 +14727,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI111" t="inlineStr">
+      <c r="AI111" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -14850,7 +14795,6 @@
       <c r="N112" t="n">
         <v>1.06</v>
       </c>
-      <c r="O112" t="inlineStr"/>
       <c r="P112" t="n">
         <v>0</v>
       </c>
@@ -14866,7 +14810,7 @@
       <c r="T112" t="n">
         <v>0</v>
       </c>
-      <c r="U112" t="b">
+      <c r="U112" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V112" t="b">
@@ -14896,7 +14840,6 @@
       <c r="AD112" t="n">
         <v>13.49</v>
       </c>
-      <c r="AE112" t="inlineStr"/>
       <c r="AF112" t="n">
         <v>7.34</v>
       </c>
@@ -14908,7 +14851,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI112" t="inlineStr">
+      <c r="AI112" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -14976,7 +14919,6 @@
       <c r="N113" t="n">
         <v>1.05</v>
       </c>
-      <c r="O113" t="inlineStr"/>
       <c r="P113" t="n">
         <v>0</v>
       </c>
@@ -15036,7 +14978,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI113" t="inlineStr">
+      <c r="AI113" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -15104,7 +15046,6 @@
       <c r="N114" t="n">
         <v>1.1</v>
       </c>
-      <c r="O114" t="inlineStr"/>
       <c r="P114" t="n">
         <v>4</v>
       </c>
@@ -15164,7 +15105,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI114" t="inlineStr">
+      <c r="AI114" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -15205,7 +15146,7 @@
       <c r="E115" t="n">
         <v>1.65</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115" s="2" t="n">
         <v>-1.010340153767734</v>
       </c>
       <c r="G115" t="n">
@@ -15232,7 +15173,6 @@
       <c r="N115" t="n">
         <v>1.08</v>
       </c>
-      <c r="O115" t="inlineStr"/>
       <c r="P115" t="n">
         <v>0</v>
       </c>
@@ -15292,7 +15232,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI115" t="inlineStr">
+      <c r="AI115" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -15360,7 +15300,6 @@
       <c r="N116" t="n">
         <v>1.1</v>
       </c>
-      <c r="O116" t="inlineStr"/>
       <c r="P116" t="n">
         <v>0</v>
       </c>
@@ -15420,7 +15359,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI116" t="inlineStr">
+      <c r="AI116" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -15488,7 +15427,6 @@
       <c r="N117" t="n">
         <v>1.1</v>
       </c>
-      <c r="O117" t="inlineStr"/>
       <c r="P117" t="n">
         <v>0</v>
       </c>
@@ -15504,7 +15442,7 @@
       <c r="T117" t="n">
         <v>0</v>
       </c>
-      <c r="U117" t="b">
+      <c r="U117" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V117" t="b">
@@ -15550,7 +15488,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI117" t="inlineStr">
+      <c r="AI117" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -15618,7 +15556,6 @@
       <c r="N118" t="n">
         <v>1.16</v>
       </c>
-      <c r="O118" t="inlineStr"/>
       <c r="P118" t="n">
         <v>0</v>
       </c>
@@ -15634,7 +15571,7 @@
       <c r="T118" t="n">
         <v>0</v>
       </c>
-      <c r="U118" t="b">
+      <c r="U118" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V118" t="b">
@@ -15680,7 +15617,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI118" t="inlineStr">
+      <c r="AI118" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -15748,7 +15685,6 @@
       <c r="N119" t="n">
         <v>1.12</v>
       </c>
-      <c r="O119" t="inlineStr"/>
       <c r="P119" t="n">
         <v>0</v>
       </c>
@@ -15808,7 +15744,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI119" t="inlineStr">
+      <c r="AI119" s="4" t="inlineStr">
         <is>
           <t>Technology</t>
         </is>
@@ -15876,7 +15812,6 @@
       <c r="N120" t="n">
         <v>1.03</v>
       </c>
-      <c r="O120" t="inlineStr"/>
       <c r="P120" t="n">
         <v>0</v>
       </c>
@@ -15892,7 +15827,7 @@
       <c r="T120" t="n">
         <v>0</v>
       </c>
-      <c r="U120" t="b">
+      <c r="U120" s="6" t="b">
         <v>1</v>
       </c>
       <c r="V120" t="b">
@@ -15936,7 +15871,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI120" t="inlineStr">
+      <c r="AI120" s="3" t="inlineStr">
         <is>
           <t>Basic Materials</t>
         </is>
@@ -15977,13 +15912,13 @@
       <c r="E121" t="n">
         <v>1.45</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121" s="2" t="n">
         <v>-1.110073644426319</v>
       </c>
       <c r="G121" t="n">
         <v>1.6</v>
       </c>
-      <c r="H121" t="n">
+      <c r="H121" s="2" t="n">
         <v>-1.115233447144863</v>
       </c>
       <c r="I121" t="n">
@@ -16004,7 +15939,6 @@
       <c r="N121" t="n">
         <v>1.03</v>
       </c>
-      <c r="O121" t="inlineStr"/>
       <c r="P121" t="n">
         <v>0</v>
       </c>
@@ -16064,7 +15998,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI121" t="inlineStr">
+      <c r="AI121" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -16132,7 +16066,6 @@
       <c r="N122" t="n">
         <v>1.02</v>
       </c>
-      <c r="O122" t="inlineStr"/>
       <c r="P122" t="n">
         <v>2</v>
       </c>
@@ -16192,7 +16125,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI122" t="inlineStr">
+      <c r="AI122" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
@@ -16260,7 +16193,6 @@
       <c r="N123" t="n">
         <v>1.1</v>
       </c>
-      <c r="O123" t="inlineStr"/>
       <c r="P123" t="n">
         <v>0</v>
       </c>
@@ -16320,7 +16252,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI123" t="inlineStr">
+      <c r="AI123" s="4" t="inlineStr">
         <is>
           <t>Consumer Cyclical</t>
         </is>
@@ -16388,7 +16320,6 @@
       <c r="N124" t="n">
         <v>1.1</v>
       </c>
-      <c r="O124" t="inlineStr"/>
       <c r="P124" t="n">
         <v>0</v>
       </c>
@@ -16448,7 +16379,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI124" t="inlineStr">
+      <c r="AI124" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -16516,7 +16447,6 @@
       <c r="N125" t="n">
         <v>1.15</v>
       </c>
-      <c r="O125" t="inlineStr"/>
       <c r="P125" t="n">
         <v>1</v>
       </c>
@@ -16576,7 +16506,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI125" t="inlineStr">
+      <c r="AI125" s="4" t="inlineStr">
         <is>
           <t>Financial Services</t>
         </is>
@@ -16644,7 +16574,6 @@
       <c r="N126" t="n">
         <v>1.16</v>
       </c>
-      <c r="O126" t="inlineStr"/>
       <c r="P126" t="n">
         <v>0</v>
       </c>
@@ -16704,7 +16633,7 @@
           <t>N/A</t>
         </is>
       </c>
-      <c r="AI126" t="inlineStr">
+      <c r="AI126" s="4" t="inlineStr">
         <is>
           <t>Industrials</t>
         </is>
